--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T08:26:42+00:00</t>
+    <t>2024-03-25T09:35:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/ValueSet-vsCommunicationModes.xlsx
+++ b/main/ig/ValueSet-vsCommunicationModes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet for communication modes (incremental, summary).</t>
+    <t>ValueSet for communication modes (Incrémental, Récapitulatif).</t>
   </si>
   <si>
     <t>Purpose</t>
